--- a/templates/dataplant/Genomics_assay.xlsx
+++ b/templates/dataplant/Genomics_assay.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="115">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -74,12 +74,12 @@
     <t>Genomics</t>
   </si>
   <si>
-    <t>DNASeq</t>
-  </si>
-  <si>
     <t>assay</t>
   </si>
   <si>
+    <t>DNA Sequencing</t>
+  </si>
+  <si>
     <t>Tags Term Accession Number</t>
   </si>
   <si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000070</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C153598</t>
   </si>
   <si>
     <t>Tags Term Source REF</t>
@@ -911,88 +914,94 @@
       <c r="B14" t="s">
         <v>23</v>
       </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
       <c r="D14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1008,860 +1017,860 @@
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="V1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AP1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AQ1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AR1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AS1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AT1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AU1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="X2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AA2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AD2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AL2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AM2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AN2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AP2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AQ2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AR2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AS2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AT2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AU2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="X3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AA3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AJ3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AL3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AM3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AN3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AP3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AQ3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AR3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AS3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AT3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AU3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="X4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AA4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AJ4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AL4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AN4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AP4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AQ4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AR4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AS4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AT4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AU4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AA5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AJ5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AL5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AN5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AP5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AQ5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AR5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AS5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AT5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AU5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AA6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AJ6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AL6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AN6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AP6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AQ6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AR6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AS6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AT6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AU6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/Genomics_assay.xlsx
+++ b/templates/dataplant/Genomics_assay.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="116">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>Illumina TrueSeq</t>
+  </si>
+  <si>
+    <t>v2</t>
   </si>
   <si>
     <t>ACTTGA</t>
@@ -1217,7 +1220,7 @@
         <v>91</v>
       </c>
       <c r="T2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="U2" t="s">
         <v>91</v>
@@ -1226,7 +1229,7 @@
         <v>91</v>
       </c>
       <c r="W2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="X2" t="s">
         <v>91</v>
@@ -1244,7 +1247,7 @@
         <v>91</v>
       </c>
       <c r="AC2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AD2" t="s">
         <v>91</v>
@@ -1280,7 +1283,7 @@
         <v>91</v>
       </c>
       <c r="AO2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="AP2" t="s">
         <v>91</v>
@@ -1315,7 +1318,7 @@
         <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
         <v>91</v>
@@ -1324,7 +1327,7 @@
         <v>91</v>
       </c>
       <c r="H3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I3" t="s">
         <v>91</v>
@@ -1333,7 +1336,7 @@
         <v>91</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L3" t="s">
         <v>91</v>
@@ -1342,7 +1345,7 @@
         <v>91</v>
       </c>
       <c r="N3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O3" t="s">
         <v>91</v>
@@ -1369,7 +1372,7 @@
         <v>91</v>
       </c>
       <c r="W3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="X3" t="s">
         <v>91</v>
@@ -1414,7 +1417,7 @@
         <v>91</v>
       </c>
       <c r="AL3" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="AM3" t="s">
         <v>91</v>
@@ -1423,7 +1426,7 @@
         <v>91</v>
       </c>
       <c r="AO3" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="AP3" t="s">
         <v>91</v>
@@ -1458,7 +1461,7 @@
         <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
         <v>91</v>
@@ -1467,7 +1470,7 @@
         <v>91</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I4" t="s">
         <v>91</v>
@@ -1476,7 +1479,7 @@
         <v>91</v>
       </c>
       <c r="K4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L4" t="s">
         <v>91</v>
@@ -1512,7 +1515,7 @@
         <v>91</v>
       </c>
       <c r="W4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="X4" t="s">
         <v>91</v>
@@ -1557,7 +1560,7 @@
         <v>91</v>
       </c>
       <c r="AL4" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="AM4" t="s">
         <v>91</v>
@@ -1566,7 +1569,7 @@
         <v>91</v>
       </c>
       <c r="AO4" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="AP4" t="s">
         <v>91</v>
@@ -1610,7 +1613,7 @@
         <v>91</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I5" t="s">
         <v>91</v>
@@ -1753,7 +1756,7 @@
         <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I6" t="s">
         <v>91</v>

--- a/templates/dataplant/Genomics_assay.xlsx
+++ b/templates/dataplant/Genomics_assay.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="122">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -224,6 +224,9 @@
     <t>Parameter [library DNA amount]</t>
   </si>
   <si>
+    <t>Unit</t>
+  </si>
+  <si>
     <t>Term Source REF (DPBO:0000056)</t>
   </si>
   <si>
@@ -278,30 +281,54 @@
     <t>Parameter [read length]</t>
   </si>
   <si>
+    <t xml:space="preserve">Unit </t>
+  </si>
+  <si>
     <t>Term Source REF (GENEPIO:0000076)</t>
   </si>
   <si>
     <t>Term Accession Number (GENEPIO:0000076)</t>
   </si>
   <si>
-    <t>Output [Raw Data File]</t>
+    <t>Output [Data]</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>RNA-Seq strategy</t>
-  </si>
-  <si>
-    <t>GENOMIC</t>
-  </si>
-  <si>
-    <t>cDNA method</t>
+    <t>SAMN00000000</t>
+  </si>
+  <si>
+    <t>Whole Genome Sequencing</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/NCIT:C101294</t>
+  </si>
+  <si>
+    <t>genomic DNA</t>
+  </si>
+  <si>
+    <t>BAO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/BAO_0000316</t>
+  </si>
+  <si>
+    <t>Polymerase Chain Reaction</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/NCIT:C17003</t>
   </si>
   <si>
     <t>paired-end</t>
   </si>
   <si>
+    <t>DPBO</t>
+  </si>
+  <si>
+    <t>http://purl.org/nfdi4plants/ontology/dpbo/DPBO_1000087</t>
+  </si>
+  <si>
     <t>Illumina TrueSeq</t>
   </si>
   <si>
@@ -311,7 +338,28 @@
     <t>ACTTGA</t>
   </si>
   <si>
-    <t>HiSeq 2000</t>
+    <t>100</t>
+  </si>
+  <si>
+    <t>nanogram</t>
+  </si>
+  <si>
+    <t>UO</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/UO:0000024</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>Illumina HiSeq 2000</t>
+  </si>
+  <si>
+    <t>OBI</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/OBI:0002001</t>
   </si>
   <si>
     <t>Illumina Casava</t>
@@ -323,43 +371,13 @@
     <t>R1</t>
   </si>
   <si>
-    <t>ChIP-Seq strategy</t>
-  </si>
-  <si>
-    <t>TRANSCRIPTOMIC</t>
-  </si>
-  <si>
-    <t>size fractionation method</t>
-  </si>
-  <si>
-    <t>Single-end</t>
-  </si>
-  <si>
-    <t>TAGCTT</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>ssRNA-seq</t>
-  </si>
-  <si>
-    <t>METAGENOMIC</t>
-  </si>
-  <si>
-    <t>PolyA</t>
-  </si>
-  <si>
-    <t>CGTACG</t>
-  </si>
-  <si>
-    <t>Forward</t>
-  </si>
-  <si>
-    <t>METATRANSCRIPTOMIC</t>
-  </si>
-  <si>
-    <t>SYNTHETIC</t>
+    <t>150</t>
+  </si>
+  <si>
+    <t>base pair</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/UO:0000244</t>
   </si>
 </sst>
 </file>
@@ -415,8 +433,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AU6" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:AU6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AW2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:AW2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -464,8 +482,10 @@
     <filterColumn colId="44" hiddenButton="1"/>
     <filterColumn colId="45" hiddenButton="1"/>
     <filterColumn colId="46" hiddenButton="1"/>
+    <filterColumn colId="47" hiddenButton="1"/>
+    <filterColumn colId="48" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="47">
+  <tableColumns count="49">
     <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Parameter [BioSample Accession Number]" totalsRowFunction="none"/>
     <tableColumn id="3" name="Term Source REF (NCIT:C175889)" totalsRowFunction="none"/>
@@ -492,27 +512,29 @@
     <tableColumn id="24" name="Term Source REF (GENEPIO:0000083)" totalsRowFunction="none"/>
     <tableColumn id="25" name="Term Accession Number (GENEPIO:0000083)" totalsRowFunction="none"/>
     <tableColumn id="26" name="Parameter [library DNA amount]" totalsRowFunction="none"/>
-    <tableColumn id="27" name="Term Source REF (DPBO:0000056)" totalsRowFunction="none"/>
-    <tableColumn id="28" name="Term Accession Number (DPBO:0000056)" totalsRowFunction="none"/>
-    <tableColumn id="29" name="Parameter [next generation sequencing platform]" totalsRowFunction="none"/>
-    <tableColumn id="30" name="Term Source REF (DPBO:0000057)" totalsRowFunction="none"/>
-    <tableColumn id="31" name="Term Accession Number (DPBO:0000057)" totalsRowFunction="none"/>
-    <tableColumn id="32" name="Parameter [next generation sequencing instrument model]" totalsRowFunction="none"/>
-    <tableColumn id="33" name="Term Source REF (DPBO:0000040)" totalsRowFunction="none"/>
-    <tableColumn id="34" name="Term Accession Number (DPBO:0000040)" totalsRowFunction="none"/>
-    <tableColumn id="35" name="Parameter [base-calling software]" totalsRowFunction="none"/>
-    <tableColumn id="36" name="Term Source REF (DPBO:0000017)" totalsRowFunction="none"/>
-    <tableColumn id="37" name="Term Accession Number (DPBO:0000017)" totalsRowFunction="none"/>
-    <tableColumn id="38" name="Parameter [base-calling software version]" totalsRowFunction="none"/>
-    <tableColumn id="39" name="Term Source REF (DPBO:0000018)" totalsRowFunction="none"/>
-    <tableColumn id="40" name="Term Accession Number (DPBO:0000018)" totalsRowFunction="none"/>
-    <tableColumn id="41" name="Parameter [library strand]" totalsRowFunction="none"/>
-    <tableColumn id="42" name="Term Source REF (DPBO:0000020)" totalsRowFunction="none"/>
-    <tableColumn id="43" name="Term Accession Number (DPBO:0000020)" totalsRowFunction="none"/>
-    <tableColumn id="44" name="Parameter [read length]" totalsRowFunction="none"/>
-    <tableColumn id="45" name="Term Source REF (GENEPIO:0000076)" totalsRowFunction="none"/>
-    <tableColumn id="46" name="Term Accession Number (GENEPIO:0000076)" totalsRowFunction="none"/>
-    <tableColumn id="47" name="Output [Raw Data File]" totalsRowFunction="none"/>
+    <tableColumn id="27" name="Unit" totalsRowFunction="none"/>
+    <tableColumn id="28" name="Term Source REF (DPBO:0000056)" totalsRowFunction="none"/>
+    <tableColumn id="29" name="Term Accession Number (DPBO:0000056)" totalsRowFunction="none"/>
+    <tableColumn id="30" name="Parameter [next generation sequencing platform]" totalsRowFunction="none"/>
+    <tableColumn id="31" name="Term Source REF (DPBO:0000057)" totalsRowFunction="none"/>
+    <tableColumn id="32" name="Term Accession Number (DPBO:0000057)" totalsRowFunction="none"/>
+    <tableColumn id="33" name="Parameter [next generation sequencing instrument model]" totalsRowFunction="none"/>
+    <tableColumn id="34" name="Term Source REF (DPBO:0000040)" totalsRowFunction="none"/>
+    <tableColumn id="35" name="Term Accession Number (DPBO:0000040)" totalsRowFunction="none"/>
+    <tableColumn id="36" name="Parameter [base-calling software]" totalsRowFunction="none"/>
+    <tableColumn id="37" name="Term Source REF (DPBO:0000017)" totalsRowFunction="none"/>
+    <tableColumn id="38" name="Term Accession Number (DPBO:0000017)" totalsRowFunction="none"/>
+    <tableColumn id="39" name="Parameter [base-calling software version]" totalsRowFunction="none"/>
+    <tableColumn id="40" name="Term Source REF (DPBO:0000018)" totalsRowFunction="none"/>
+    <tableColumn id="41" name="Term Accession Number (DPBO:0000018)" totalsRowFunction="none"/>
+    <tableColumn id="42" name="Parameter [library strand]" totalsRowFunction="none"/>
+    <tableColumn id="43" name="Term Source REF (DPBO:0000020)" totalsRowFunction="none"/>
+    <tableColumn id="44" name="Term Accession Number (DPBO:0000020)" totalsRowFunction="none"/>
+    <tableColumn id="45" name="Parameter [read length]" totalsRowFunction="none"/>
+    <tableColumn id="46" name="Unit " totalsRowFunction="none"/>
+    <tableColumn id="47" name="Term Source REF (GENEPIO:0000076)" totalsRowFunction="none"/>
+    <tableColumn id="48" name="Term Accession Number (GENEPIO:0000076)" totalsRowFunction="none"/>
+    <tableColumn id="49" name="Output [Data]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1015,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU6"/>
+  <dimension ref="A1:AW2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1160,720 +1182,160 @@
       <c r="AU1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="N2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="P2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="Q2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="R2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="U2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="V2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="W2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="X2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Y2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Z2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="AA2" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="AB2" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="AC2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="AD2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="AE2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AF2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AG2" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="AH2" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="AI2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="AJ2" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="AK2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AL2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AM2" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="AN2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AO2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="AP2" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="AQ2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AR2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AS2" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="AT2" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="AU2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O3" t="s">
-        <v>91</v>
-      </c>
-      <c r="P3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>91</v>
-      </c>
-      <c r="R3" t="s">
-        <v>91</v>
-      </c>
-      <c r="S3" t="s">
-        <v>91</v>
-      </c>
-      <c r="T3" t="s">
-        <v>91</v>
-      </c>
-      <c r="U3" t="s">
-        <v>91</v>
-      </c>
-      <c r="V3" t="s">
-        <v>91</v>
-      </c>
-      <c r="W3" t="s">
-        <v>107</v>
-      </c>
-      <c r="X3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" t="s">
         <v>110</v>
       </c>
-      <c r="I4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" t="s">
-        <v>91</v>
-      </c>
-      <c r="K4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L4" t="s">
-        <v>91</v>
-      </c>
-      <c r="M4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N4" t="s">
-        <v>91</v>
-      </c>
-      <c r="O4" t="s">
-        <v>91</v>
-      </c>
-      <c r="P4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>91</v>
-      </c>
-      <c r="R4" t="s">
-        <v>91</v>
-      </c>
-      <c r="S4" t="s">
-        <v>91</v>
-      </c>
-      <c r="T4" t="s">
-        <v>91</v>
-      </c>
-      <c r="U4" t="s">
-        <v>91</v>
-      </c>
-      <c r="V4" t="s">
-        <v>91</v>
-      </c>
-      <c r="W4" t="s">
-        <v>112</v>
-      </c>
-      <c r="X4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" t="s">
-        <v>114</v>
-      </c>
-      <c r="I5" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" t="s">
-        <v>91</v>
-      </c>
-      <c r="L5" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" t="s">
-        <v>91</v>
-      </c>
-      <c r="N5" t="s">
-        <v>91</v>
-      </c>
-      <c r="O5" t="s">
-        <v>91</v>
-      </c>
-      <c r="P5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R5" t="s">
-        <v>91</v>
-      </c>
-      <c r="S5" t="s">
-        <v>91</v>
-      </c>
-      <c r="T5" t="s">
-        <v>91</v>
-      </c>
-      <c r="U5" t="s">
-        <v>91</v>
-      </c>
-      <c r="V5" t="s">
-        <v>91</v>
-      </c>
-      <c r="W5" t="s">
-        <v>91</v>
-      </c>
-      <c r="X5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" t="s">
-        <v>115</v>
-      </c>
-      <c r="I6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" t="s">
-        <v>91</v>
-      </c>
-      <c r="M6" t="s">
-        <v>91</v>
-      </c>
-      <c r="N6" t="s">
-        <v>91</v>
-      </c>
-      <c r="O6" t="s">
-        <v>91</v>
-      </c>
-      <c r="P6" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>91</v>
-      </c>
-      <c r="R6" t="s">
-        <v>91</v>
-      </c>
-      <c r="S6" t="s">
-        <v>91</v>
-      </c>
-      <c r="T6" t="s">
-        <v>91</v>
-      </c>
-      <c r="U6" t="s">
-        <v>91</v>
-      </c>
-      <c r="V6" t="s">
-        <v>91</v>
-      </c>
-      <c r="W6" t="s">
-        <v>91</v>
-      </c>
-      <c r="X6" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>91</v>
+      <c r="AV2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/Genomics_assay.xlsx
+++ b/templates/dataplant/Genomics_assay.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="121">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -149,7 +149,7 @@
     <t>Input [Source Name]</t>
   </si>
   <si>
-    <t>Parameter [BioSample Accession Number]</t>
+    <t>Characteristic [BioSample Accession Number]</t>
   </si>
   <si>
     <t>Term Source REF (NCIT:C175889)</t>
@@ -167,7 +167,7 @@
     <t>Term Accession Number (DPBO:0000035)</t>
   </si>
   <si>
-    <t>Parameter [library source]</t>
+    <t>Characteristic [library source]</t>
   </si>
   <si>
     <t>Term Source REF (GENEPIO:0001965)</t>
@@ -194,7 +194,7 @@
     <t>Term Accession Number (DPBO:0000015)</t>
   </si>
   <si>
-    <t>Parameter [library preparation kit]</t>
+    <t>Component [library preparation kit]</t>
   </si>
   <si>
     <t>Term Source REF (GENEPIO:0000085)</t>
@@ -242,7 +242,7 @@
     <t>Term Accession Number (DPBO:0000057)</t>
   </si>
   <si>
-    <t>Parameter [next generation sequencing instrument model]</t>
+    <t>Component [next generation sequencing instrument model]</t>
   </si>
   <si>
     <t>Term Source REF (DPBO:0000040)</t>
@@ -251,7 +251,7 @@
     <t>Term Accession Number (DPBO:0000040)</t>
   </si>
   <si>
-    <t>Parameter [base-calling software]</t>
+    <t>Component [base-calling software]</t>
   </si>
   <si>
     <t>Term Source REF (DPBO:0000017)</t>
@@ -305,13 +305,10 @@
     <t>https://bioregistry.io/NCIT:C101294</t>
   </si>
   <si>
-    <t>genomic DNA</t>
-  </si>
-  <si>
-    <t>BAO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/BAO_0000316</t>
+    <t>Genomic DNA</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/NCIT:C95940</t>
   </si>
   <si>
     <t>Polymerase Chain Reaction</t>
@@ -356,10 +353,10 @@
     <t>Illumina HiSeq 2000</t>
   </si>
   <si>
-    <t>OBI</t>
-  </si>
-  <si>
-    <t>https://bioregistry.io/OBI:0002001</t>
+    <t>EFO</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/EFO:0004203</t>
   </si>
   <si>
     <t>Illumina Casava</t>
@@ -487,13 +484,13 @@
   </autoFilter>
   <tableColumns count="49">
     <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Parameter [BioSample Accession Number]" totalsRowFunction="none"/>
+    <tableColumn id="2" name="Characteristic [BioSample Accession Number]" totalsRowFunction="none"/>
     <tableColumn id="3" name="Term Source REF (NCIT:C175889)" totalsRowFunction="none"/>
     <tableColumn id="4" name="Term Accession Number (NCIT:C175889)" totalsRowFunction="none"/>
     <tableColumn id="5" name="Parameter [library strategy]" totalsRowFunction="none"/>
     <tableColumn id="6" name="Term Source REF (DPBO:0000035)" totalsRowFunction="none"/>
     <tableColumn id="7" name="Term Accession Number (DPBO:0000035)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Parameter [library source]" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Characteristic [library source]" totalsRowFunction="none"/>
     <tableColumn id="9" name="Term Source REF (GENEPIO:0001965)" totalsRowFunction="none"/>
     <tableColumn id="10" name="Term Accession Number (GENEPIO:0001965)" totalsRowFunction="none"/>
     <tableColumn id="11" name="Parameter [library selection]" totalsRowFunction="none"/>
@@ -502,7 +499,7 @@
     <tableColumn id="14" name="Parameter [library layout]" totalsRowFunction="none"/>
     <tableColumn id="15" name="Term Source REF (DPBO:0000015)" totalsRowFunction="none"/>
     <tableColumn id="16" name="Term Accession Number (DPBO:0000015)" totalsRowFunction="none"/>
-    <tableColumn id="17" name="Parameter [library preparation kit]" totalsRowFunction="none"/>
+    <tableColumn id="17" name="Component [library preparation kit]" totalsRowFunction="none"/>
     <tableColumn id="18" name="Term Source REF (GENEPIO:0000085)" totalsRowFunction="none"/>
     <tableColumn id="19" name="Term Accession Number (GENEPIO:0000085)" totalsRowFunction="none"/>
     <tableColumn id="20" name="Parameter [library preparation kit version]" totalsRowFunction="none"/>
@@ -518,10 +515,10 @@
     <tableColumn id="30" name="Parameter [next generation sequencing platform]" totalsRowFunction="none"/>
     <tableColumn id="31" name="Term Source REF (DPBO:0000057)" totalsRowFunction="none"/>
     <tableColumn id="32" name="Term Accession Number (DPBO:0000057)" totalsRowFunction="none"/>
-    <tableColumn id="33" name="Parameter [next generation sequencing instrument model]" totalsRowFunction="none"/>
+    <tableColumn id="33" name="Component [next generation sequencing instrument model]" totalsRowFunction="none"/>
     <tableColumn id="34" name="Term Source REF (DPBO:0000040)" totalsRowFunction="none"/>
     <tableColumn id="35" name="Term Accession Number (DPBO:0000040)" totalsRowFunction="none"/>
-    <tableColumn id="36" name="Parameter [base-calling software]" totalsRowFunction="none"/>
+    <tableColumn id="36" name="Component [base-calling software]" totalsRowFunction="none"/>
     <tableColumn id="37" name="Term Source REF (DPBO:0000017)" totalsRowFunction="none"/>
     <tableColumn id="38" name="Term Accession Number (DPBO:0000017)" totalsRowFunction="none"/>
     <tableColumn id="39" name="Parameter [base-calling software version]" totalsRowFunction="none"/>
@@ -1215,124 +1212,124 @@
         <v>97</v>
       </c>
       <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
         <v>98</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>99</v>
-      </c>
-      <c r="K2" t="s">
-        <v>100</v>
       </c>
       <c r="L2" t="s">
         <v>27</v>
       </c>
       <c r="M2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" t="s">
         <v>101</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>102</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>103</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>104</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S2" t="s">
+        <v>93</v>
+      </c>
+      <c r="T2" t="s">
         <v>105</v>
       </c>
-      <c r="R2" t="s">
-        <v>93</v>
-      </c>
-      <c r="S2" t="s">
-        <v>93</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" t="s">
+        <v>93</v>
+      </c>
+      <c r="W2" t="s">
         <v>106</v>
       </c>
-      <c r="U2" t="s">
-        <v>93</v>
-      </c>
-      <c r="V2" t="s">
-        <v>93</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2" t="s">
         <v>107</v>
       </c>
-      <c r="X2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>108</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>109</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>110</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>111</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG2" t="s">
         <v>112</v>
       </c>
-      <c r="AE2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>113</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>114</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>115</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM2" t="s">
         <v>116</v>
       </c>
-      <c r="AK2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP2" t="s">
         <v>117</v>
       </c>
-      <c r="AN2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS2" t="s">
         <v>118</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>119</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV2" t="s">
         <v>120</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>121</v>
       </c>
       <c r="AW2" t="s">
         <v>93</v>
